--- a/ConsoleApp1/excel.xlsx
+++ b/ConsoleApp1/excel.xlsx
@@ -12,7 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>sdsa</t>
+  </si>
+  <si>
+    <t>asddas</t>
+  </si>
+  <si>
+    <t>adsdsasdadasdsa</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,11 +66,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0">
+        <v>2156809</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3861868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>7083054</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ConsoleApp1/excel.xlsx
+++ b/ConsoleApp1/excel.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>sdsa</t>
   </si>
   <si>
     <t>asddas</t>
-  </si>
-  <si>
-    <t>adsdsasdadasdsa</t>
   </si>
 </sst>
 </file>
@@ -66,7 +63,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -88,14 +85,6 @@
         <v>3861868</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
-        <v>7083054</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/ConsoleApp1/excel.xlsx
+++ b/ConsoleApp1/excel.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>sdsa</t>
+    <t>Harry potter</t>
   </si>
   <si>
     <t>asddas</t>
+  </si>
+  <si>
+    <t>iuUiUU</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -74,15 +77,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>2156809</v>
+        <v>9732636</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>3861868</v>
+        <v>7054723</v>
+      </c>
+      <c r="C2" s="0">
+        <v>50</v>
+      </c>
+      <c r="D2" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
